--- a/data/income_statement/2digits/size/82_IS_LARGE.xlsx
+++ b/data/income_statement/2digits/size/82_IS_LARGE.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>82-Office administrative, office support and other business support activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>82-Office administrative, office support and other business support activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,296 +841,336 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>1629470.76128</v>
+        <v>1507928.84069</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>1708390.05208</v>
+        <v>1952692.52378</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>2781059.105229999</v>
+        <v>2695211.84787</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>3439222.63055</v>
+        <v>3357351.64768</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>4213626.656380001</v>
+        <v>3928532.686509999</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>4968313.093479999</v>
+        <v>4790146.4675</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>5549186.85374</v>
+        <v>6349979.578209999</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>7972098.21426</v>
+        <v>7893915.274940001</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>10042609.4531</v>
+        <v>9810181.902079999</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>10407517.30603</v>
+        <v>9539494.904409999</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>12795026.62845</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>12079301.94137</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>15442376.091</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>1572798.76613</v>
+        <v>1456122.07687</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>1628840.49563</v>
+        <v>1878200.51007</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>2686461.58541</v>
+        <v>2610277.95161</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>3345570.570379999</v>
+        <v>3272154.72269</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>4101921.98596</v>
+        <v>3826555.34788</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>4782683.59142</v>
+        <v>4615688.40796</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>5297718.23538</v>
+        <v>6110459.71533</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>7596870.27077</v>
+        <v>7551650.397369999</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>9392980.847520001</v>
+        <v>9173416.715779999</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>9653987.53712</v>
+        <v>8898040.38542</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>11793074.75689</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>11202667.28774</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>14169345.402</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>32254.15494</v>
+        <v>28190.50898</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>25236.53955</v>
+        <v>23425.68692</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>56247.19693000001</v>
+        <v>48303.60091</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>71189.47604000001</v>
+        <v>63963.73047</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>84093.47795999999</v>
+        <v>77610.92663000002</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>127611.55759</v>
+        <v>118277.16239</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>158712.88912</v>
+        <v>152741.93186</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>260087.82489</v>
+        <v>229138.24644</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>421551.35907</v>
+        <v>414515.0023</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>484482.84666</v>
+        <v>391934.42829</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>605105.47454</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>508552.32826</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>809222.586</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>24417.84021</v>
+        <v>23616.25484</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>54313.0169</v>
+        <v>51066.32679</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>38350.32289</v>
+        <v>36630.29535</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>22462.58413</v>
+        <v>21233.19452</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>27611.19246</v>
+        <v>24366.412</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>58017.94447</v>
+        <v>56180.89714999999</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>92755.72924000002</v>
+        <v>86777.93101999999</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>115140.1186</v>
+        <v>113126.63113</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>228077.24651</v>
+        <v>222250.184</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>269046.92225</v>
+        <v>249520.0907</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>396846.39702</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>368082.32537</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>463808.103</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>21328.20757</v>
+        <v>13922.30775</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>44155.10143</v>
+        <v>44333.6465</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>74331.30734</v>
+        <v>73954.86865999999</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>88683.6244</v>
+        <v>87649.70879</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>104688.30072</v>
+        <v>55933.19583</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>147664.6389</v>
+        <v>116840.84652</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>169727.36447</v>
+        <v>170117.909</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>202366.03463</v>
+        <v>236534.59493</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>306950.53039</v>
+        <v>301817.65194</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>307423.40479</v>
+        <v>154075.29426</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>152844.01191</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>118841.33551</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>158900.112</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>6586.94559</v>
+        <v>6430.51285</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>5409.641140000001</v>
+        <v>6372.65521</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>17599.35466</v>
+        <v>17386.67603</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>21579.48533</v>
+        <v>21413.26414</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>20996.39168</v>
+        <v>20176.71412</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>42002.91286</v>
+        <v>37990.96589</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>36651.68247</v>
+        <v>37577.69663</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>81121.54901999999</v>
+        <v>74371.89241000001</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>91329.44206</v>
+        <v>89862.57750999999</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>78656.81239000001</v>
+        <v>71978.11812999999</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>96002.39609000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>93218.14484000001</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>111083.532</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>14741.26198</v>
+        <v>7491.7949</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>38735.56555000001</v>
+        <v>37953.63892</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>55987.64588</v>
+        <v>55826.4282</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>66703.10346</v>
+        <v>65835.40904</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>83154.89798000001</v>
+        <v>35219.47065</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>104397.14678</v>
+        <v>77629.2727</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>132010.58393</v>
+        <v>131475.1143</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>120025.07359</v>
+        <v>160943.2905</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>214395.65674</v>
+        <v>210809.51027</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>227783.7599</v>
+        <v>81138.67806000001</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>56399.90189</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>25195.23927</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>47590.449</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>0</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>9.894740000000001</v>
+        <v>7.35237</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>744.3068</v>
+        <v>741.7644299999999</v>
       </c>
       <c r="F12" s="48" t="n">
         <v>401.03561</v>
@@ -1238,7 +1179,7 @@
         <v>537.01106</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>1264.57926</v>
+        <v>1220.60793</v>
       </c>
       <c r="I12" s="48" t="n">
         <v>1065.09807</v>
@@ -1247,106 +1188,121 @@
         <v>1219.41202</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>1225.43159</v>
+        <v>1145.56416</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>982.8325</v>
+        <v>958.49807</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>441.71393</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>427.9514</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>226.131</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>1608142.55371</v>
+        <v>1494006.53294</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>1664234.95065</v>
+        <v>1908358.87728</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>2706727.797890001</v>
+        <v>2621256.97921</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>3350539.00615</v>
+        <v>3269701.938889999</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>4108938.35566</v>
+        <v>3872599.49068</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>4820648.45458</v>
+        <v>4673305.62098</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>5379459.48927</v>
+        <v>6179861.669209999</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>7769732.179630001</v>
+        <v>7657380.68001</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>9735658.92271</v>
+        <v>9508364.25014</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>10100093.90124</v>
+        <v>9385419.61015</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>12642182.61654</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>11960460.60586</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>15283475.979</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>1352577.24682</v>
+        <v>1289517.64363</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>1395667.13812</v>
+        <v>1609358.74134</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>2280424.619</v>
+        <v>2207313.66566</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>2811678.86444</v>
+        <v>2749402.75154</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>3408354.08814</v>
+        <v>3276188.71489</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>3921088.17563</v>
+        <v>3806694.69037</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>4505869.589020001</v>
+        <v>5133783.941699999</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>6431147.895459999</v>
+        <v>6267395.73478</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>7775741.124229999</v>
+        <v>7597276.589360001</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>7668895.46321</v>
+        <v>7302289.26328</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>9926355.897679999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>9536926.40013</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>11794937.633</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>29350.82042</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>5727.30403</v>
+        <v>4689.71079</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>41784.02242</v>
+        <v>40280.05116</v>
       </c>
       <c r="F15" s="48" t="n">
         <v>49567.46632</v>
@@ -1355,106 +1311,121 @@
         <v>65538.33328000001</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>106936.08471</v>
+        <v>106688.4386</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>118930.29149</v>
+        <v>118923.26054</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>128064.39675</v>
+        <v>126572.5818</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>144218.62002</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>6952.26702</v>
+        <v>2614.43816</v>
       </c>
       <c r="M15" s="48" t="n">
         <v>203556.86403</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15" s="48" t="n">
+        <v>444643.786</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>62725.17536</v>
+        <v>61113.26846</v>
       </c>
       <c r="D16" s="48" t="n">
         <v>55360.16947</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>65106.55865000001</v>
+        <v>59978.46915999999</v>
       </c>
       <c r="F16" s="48" t="n">
         <v>111929.47889</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>121628.98023</v>
+        <v>121485.42419</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>114171.46766</v>
+        <v>114287.34316</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>164255.5553</v>
+        <v>168270.37868</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>147051.42237</v>
+        <v>135937.62417</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>258080.05399</v>
+        <v>240336.9013</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>149415.77266</v>
+        <v>134851.95521</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>629555.42068</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>609490.4441699999</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>460222.385</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>1259715.28</v>
+        <v>1198267.58371</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>1333655.84376</v>
+        <v>1548385.04022</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>2172469.49382</v>
+        <v>2105990.60123</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>2646502.51466</v>
+        <v>2584226.40176</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>3220143.71521</v>
+        <v>3088121.898</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>3697292.41066</v>
+        <v>3583030.69601</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>4221710.51757</v>
+        <v>4845617.077819999</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>6153903.79093</v>
+        <v>6002757.2434</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>7368693.170600001</v>
+        <v>7207977.871590001</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>7510605.59045</v>
+        <v>7162901.03683</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>9093119.147709999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>8723754.626669999</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>10889853.96</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>785.97104</v>
@@ -1481,7 +1452,7 @@
         <v>2128.28541</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>4749.27962</v>
+        <v>4743.19645</v>
       </c>
       <c r="L18" s="48" t="n">
         <v>1921.83308</v>
@@ -1489,89 +1460,104 @@
       <c r="M18" s="48" t="n">
         <v>124.46526</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="48" t="n">
+        <v>217.502</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>255565.30689</v>
+        <v>204488.88931</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>268567.81253</v>
+        <v>299000.13594</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>426303.17889</v>
+        <v>413943.31355</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>538860.14171</v>
+        <v>520299.18735</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>700584.26752</v>
+        <v>596410.7757900001</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>899560.2789500001</v>
+        <v>866610.9306099999</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>873589.9002499999</v>
+        <v>1046077.72751</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>1338584.28417</v>
+        <v>1389984.94523</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>1959917.79848</v>
+        <v>1911087.66078</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>2431198.43803</v>
+        <v>2083130.34687</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>2715826.71886</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>2423534.20573</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>3488538.346</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>171203.27415</v>
+        <v>134533.92341</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>186219.72963</v>
+        <v>202013.14019</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>303057.02914</v>
+        <v>277116.57363</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>389954.4453</v>
+        <v>365575.26105</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>473292.6704</v>
+        <v>404512.29845</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>673415.30915</v>
+        <v>616774.0734400001</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>688263.56622</v>
+        <v>771550.8056600001</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>947000.0315599999</v>
+        <v>996120.9899800001</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>1515853.31446</v>
+        <v>1466860.52201</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>1536132.46291</v>
+        <v>1373981.30677</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>1673776.95406</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1521431.69485</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>1696378.557</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>2818.049730000001</v>
@@ -1583,16 +1569,16 @@
         <v>3485.88287</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>4729.861269999999</v>
+        <v>4726.92843</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>1158.04027</v>
+        <v>1149.92207</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>1680.32035</v>
+        <v>1674.64174</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>2252.97998</v>
+        <v>2226.69126</v>
       </c>
       <c r="J21" s="48" t="n">
         <v>2499.52041</v>
@@ -1606,440 +1592,500 @@
       <c r="M21" s="48" t="n">
         <v>4491.34112</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>17402.09</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>32679.69386</v>
+        <v>21880.42273</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>40902.01482</v>
+        <v>38748.87638</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>76150.50753</v>
+        <v>74564.68955</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>103414.82893</v>
+        <v>99993.30534000001</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>117530.07552</v>
+        <v>98243.73879</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>175661.70342</v>
+        <v>159809.17468</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>181425.24703</v>
+        <v>178734.27216</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>165493.38717</v>
+        <v>226217.81527</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>286033.65853</v>
+        <v>276347.13727</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>252864.26739</v>
+        <v>202731.96895</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>326314.82356</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>294317.50365</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>305734.118</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>135705.53056</v>
+        <v>109835.45095</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>142443.30785</v>
+        <v>160389.85685</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>223420.63874</v>
+        <v>199066.00121</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>281809.7551</v>
+        <v>260855.02728</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>354604.55461</v>
+        <v>305118.6375900001</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>496073.28538</v>
+        <v>455290.25702</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>504585.3392100001</v>
+        <v>590589.84224</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>779007.12398</v>
+        <v>767403.6542999999</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>1125032.80661</v>
+        <v>1085726.53542</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>1151134.74543</v>
+        <v>1039115.88773</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>1342970.78938</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1222622.85008</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>1373242.349</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>84362.03274</v>
+        <v>69954.96590000001</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>82348.08290000001</v>
+        <v>96986.99575</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>123246.14975</v>
+        <v>136826.73992</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>148905.69641</v>
+        <v>154723.9263</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>227291.59712</v>
+        <v>191898.47734</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>226144.9698</v>
+        <v>249836.85717</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>185326.33403</v>
+        <v>274526.92185</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>391584.25261</v>
+        <v>393863.95525</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>444064.48402</v>
+        <v>444227.13877</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>895065.97512</v>
+        <v>709149.0401</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>1042049.7648</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>902102.51088</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>1792159.789</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>79920.15728999999</v>
+        <v>41829.61904</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>124741.2656</v>
+        <v>59803.68536</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>184091.44025</v>
+        <v>80254.90859000001</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>368017.7431900001</v>
+        <v>102069.45319</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>132151.18477</v>
+        <v>83192.48218000001</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>178471.51616</v>
+        <v>108606.48357</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>318605.4996</v>
+        <v>264872.66961</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>309076.0972899999</v>
+        <v>286538.37094</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>511545.31813</v>
+        <v>457674.01341</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>1046919.42075</v>
+        <v>599171.84846</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>1483177.38698</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>1163048.76801</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>1059812.873</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>3771.24271</v>
+        <v>0.82389</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>943.3225</v>
+        <v>626.3449300000001</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>2023.66311</v>
+        <v>699.5677900000001</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>1081.33798</v>
+        <v>714.72324</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>883.56976</v>
+        <v>57.66155999999999</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>888.2836799999999</v>
+        <v>253.22085</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>2754.54129</v>
+        <v>878.2267800000001</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>2033.5202</v>
+        <v>1357.1393</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>9329.639939999999</v>
+        <v>6293.92314</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>6369.76224</v>
+        <v>142.55622</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>9543.31798</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>2713.3155</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>16358.22</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>16339.09211</v>
+        <v>1023.37258</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>59641.8429</v>
+        <v>395.60961</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>79121.05501999999</v>
+        <v>218.36985</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>241168.4185</v>
+        <v>1287.13806</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>14381.67765</v>
+        <v>2394.884599999999</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>35114.35462000001</v>
+        <v>6895.88462</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>27209.21221999999</v>
+        <v>7732.730830000001</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>30116.86811</v>
+        <v>12661.0261</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>51503.52072</v>
+        <v>22129.10425</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>73487.23058</v>
+        <v>72074.37877</v>
       </c>
       <c r="M27" s="48" t="n">
         <v>656096.53035</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>331020.506</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>22430.10421</v>
+        <v>12268.91652</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>21353.17364</v>
+        <v>21075.32597</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>35221.07238</v>
+        <v>27425.10169</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>42220.17178</v>
+        <v>38005.72133</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>34625.22359</v>
+        <v>19401.15041</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>52477.19636</v>
+        <v>37521.05751999999</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>59954.5719</v>
+        <v>65597.74984999999</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>74537.02678</v>
+        <v>87024.31890000001</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>157340.49578</v>
+        <v>149548.53761</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>234307.90763</v>
+        <v>104146.05778</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>268962.64951</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>166007.54018</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>201997.839</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>39.42937000000001</v>
+        <v>5.69257</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>223.54649</v>
+        <v>135.48203</v>
       </c>
       <c r="E29" s="48" t="n">
         <v>180.5422</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>114.73366</v>
+        <v>13.98538</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>120.17042</v>
+        <v>112.77508</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>757.29435</v>
+        <v>194.1151</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>1217.99156</v>
+        <v>1180.32285</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>1306.0855</v>
+        <v>1285.74388</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>2283.3607</v>
+        <v>2270.2102</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>2220.61771</v>
+        <v>1305.76586</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>338.90129</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>11.78197</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>1789.653</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>1962.30998</v>
+        <v>744.8528</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>5832.632259999999</v>
+        <v>5515.96422</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>2162.23329</v>
+        <v>1909.31192</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>2901.80417</v>
+        <v>2582.18558</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>4853.01209</v>
+        <v>2327.06292</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>4746.52855</v>
+        <v>2616.84109</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>7871.064609999999</v>
+        <v>6791.194570000001</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>15739.14851</v>
+        <v>17663.2654</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>60447.97272999999</v>
+        <v>58763.70312</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>16443.22249</v>
+        <v>9944.589749999999</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>25940.30889</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>5000.63489</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>13408.164</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>162.01596</v>
+        <v>90.65445</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>100.12595</v>
+        <v>67.45093</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>1202.65185</v>
+        <v>999.53661</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>23941.62188</v>
+        <v>23721.40489</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>306.76159</v>
+        <v>92.95492999999999</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>213.11344</v>
+        <v>140.41665</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>74099.28336999999</v>
+        <v>74071.46842</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>4969.82133</v>
+        <v>4951.994070000001</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>66182.22024</v>
+        <v>66163.84124000001</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>8185.25465</v>
+        <v>482.11654</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>22107.16129</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>15405.58599</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>56267.993</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>25504.96472</v>
+        <v>20861.35102</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>26161.07101</v>
+        <v>21224.05132</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>47119.37337</v>
+        <v>32249.64683</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>48048.83008</v>
+        <v>27963.412</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>65329.61428</v>
+        <v>48519.57169</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>67969.66478000001</v>
+        <v>48254.75029</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>106645.60088</v>
+        <v>71512.25364</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>133841.78448</v>
+        <v>117363.16773</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>107189.49365</v>
+        <v>99360.61519999999</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>655644.6448199999</v>
+        <v>371304.56021</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>459305.31502</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>285193.38909</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>376210.522</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>87.27078</v>
@@ -2060,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>0</v>
+        <v>85.30837</v>
       </c>
       <c r="J33" s="48" t="n">
         <v>0</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>225.404</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,185 +2164,210 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>9623.727449999998</v>
+        <v>6746.684429999999</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>10252.59027</v>
+        <v>10530.49577</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>16964.54797</v>
+        <v>16476.53064</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>8503.203370000001</v>
+        <v>7743.260939999999</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>11524.88939</v>
+        <v>10160.15499</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>16305.08038</v>
+        <v>12730.19745</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>38853.23377</v>
+        <v>37023.4143</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>46275.76312</v>
+        <v>43975.63630000001</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>56894.45082</v>
+        <v>52769.91509999999</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>49523.31612999999</v>
+        <v>39034.35883</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>40883.20265</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>32619.99004</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>62534.572</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>42573.06176999999</v>
+        <v>33608.74442</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>35921.53359000001</v>
+        <v>29630.54069</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>50472.01125</v>
+        <v>41228.08107</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>62937.48342</v>
+        <v>40110.93971</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>81533.81765</v>
+        <v>61704.55981999999</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>73274.25590999999</v>
+        <v>51864.22229999999</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>106599.39891</v>
+        <v>79960.93869</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>174681.15606</v>
+        <v>152406.1823</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>260129.15702</v>
+        <v>242735.49392</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>909134.51876</v>
+        <v>605335.2257000001</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>518623.0929399999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>314461.68938</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>476865.016</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>211.4595</v>
+        <v>155.73339</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>105.1999</v>
+        <v>49.99767</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>221.22484</v>
+        <v>185.5716</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>812.1673000000001</v>
+        <v>762.40338</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>5646.52258</v>
+        <v>5396.114350000001</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>706.3630400000001</v>
+        <v>390.59521</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>640.74319</v>
+        <v>219.20552</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>3175.10695</v>
+        <v>2272.71831</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>4579.144010000001</v>
+        <v>3649.85561</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>327.89123</v>
+        <v>149.14764</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>325.29193</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>325.0769299999999</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>99.812</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>16198.9059</v>
+        <v>12978.00174</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>9924.369289999999</v>
+        <v>9477.602150000001</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>7711.261020000001</v>
+        <v>7185.569060000001</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>8374.457789999999</v>
+        <v>7313.297070000001</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>10917.89318</v>
+        <v>5690.81446</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>11705.4123</v>
+        <v>7092.885200000001</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>12944.30645</v>
+        <v>12878.74019</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>20507.78477</v>
+        <v>19921.21635</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>21358.55316</v>
+        <v>20561.38306</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>23419.00642</v>
+        <v>7896.739759999999</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>39291.29969</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>20615.55117</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>24673.982</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>0</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>1.58</v>
+        <v>0</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>47.44461999999999</v>
+        <v>0.00343</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>203.40468</v>
+        <v>0.04803</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>4.11235</v>
+        <v>0.00741</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>0.30232</v>
+        <v>7.000000000000001e-05</v>
       </c>
       <c r="I39" s="48" t="n">
         <v>0</v>
@@ -2306,52 +2382,62 @@
         <v>0</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>271.39137</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>90.15300000000001</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>25688.70655</v>
+        <v>20029.30967</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>23537.5944</v>
+        <v>17759.65098</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>41070.67901</v>
+        <v>32727.96906</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>44021.11648</v>
+        <v>23000.15773</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>47686.05352</v>
+        <v>33373.44724</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>57473.29521</v>
+        <v>41608.25289</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>90713.24718000001</v>
+        <v>64900.62015</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>147314.13814</v>
+        <v>126558.55075</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>222896.12492</v>
+        <v>207234.03449</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>880456.07924</v>
+        <v>592808.96549</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>461120.5083</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>286948.8295</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>431314.199</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0</v>
@@ -2384,13 +2470,18 @@
         <v>0</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>1816.34299</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>931.08987</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,362 +2516,412 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>80.223</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>473.9898200000001</v>
+        <v>445.69962</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>2352.79</v>
+        <v>2343.28989</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>1421.40176</v>
+        <v>1128.96792</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>9526.337170000001</v>
+        <v>9035.0335</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>17279.23602</v>
+        <v>17244.17636</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>3360.99904</v>
+        <v>2744.60493</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>2301.10209</v>
+        <v>1962.37283</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>3489.29735</v>
+        <v>3458.86804</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>11197.28934</v>
+        <v>11192.17517</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>4931.54187</v>
+        <v>4480.372810000001</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>15798.25866</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>5641.14191</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>20606.647</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>17660.05363</v>
+        <v>15716.43435</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>17299.06854</v>
+        <v>16063.41358</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>32232.72007</v>
+        <v>29957.28365</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>36060.89311</v>
+        <v>33643.70576</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>43850.62903</v>
+        <v>36312.8529</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>49625.66947</v>
+        <v>43347.15879</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>96090.30111000001</v>
+        <v>79577.8857</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>148419.4571</v>
+        <v>140944.40635</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>204227.78313</v>
+        <v>190380.22815</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>199307.30901</v>
+        <v>162728.31205</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>228052.53397</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>209964.10597</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>168412.101</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>9973.370989999999</v>
+        <v>8560.439450000002</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>13060.38759</v>
+        <v>12490.25746</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>28916.75619</v>
+        <v>27588.39518</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>32009.25018</v>
+        <v>31810.17662</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>26705.21902</v>
+        <v>20487.26741</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>45666.42003</v>
+        <v>41925.28365</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>91040.33490999999</v>
+        <v>77725.14294000002</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>142528.23607</v>
+        <v>138184.96936</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>196708.81177</v>
+        <v>185767.25774</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>185496.61524</v>
+        <v>149599.78395</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>221022.91956</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>202934.49156</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>162307.878</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>7686.68264</v>
+        <v>7155.9949</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>4238.68095</v>
+        <v>3573.15612</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>3315.96388</v>
+        <v>2368.88847</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>4051.64293</v>
+        <v>1833.52914</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>17145.41001</v>
+        <v>15825.58549</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>3959.24944</v>
+        <v>1421.87514</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>5049.9662</v>
+        <v>1852.74276</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>5891.221030000001</v>
+        <v>2759.43699</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>7518.97136</v>
+        <v>4612.97041</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>13810.69377</v>
+        <v>13128.5281</v>
       </c>
       <c r="M46" s="48" t="n">
         <v>7029.61441</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>6104.223</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>104049.07463</v>
+        <v>62459.40617</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>153868.74637</v>
+        <v>111096.72684</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>224632.85868</v>
+        <v>145896.28379</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>417925.0630699999</v>
+        <v>183038.73402</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>234058.33521</v>
+        <v>177073.5468</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>281716.56058</v>
+        <v>263231.95965</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>301242.13361</v>
+        <v>379860.76707</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>377559.73674</v>
+        <v>387051.7375399999</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>491252.862</v>
+        <v>468785.43011</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>833543.5681</v>
+        <v>540257.35081</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>1778551.52487</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>1540725.48354</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>2206695.545</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>12538.95048</v>
+        <v>8618.73523</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>16504.12037</v>
+        <v>13869.5581</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>52032.29967</v>
+        <v>17216.6788</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>36427.19865</v>
+        <v>32433.77661</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>46006.56742</v>
+        <v>34295.96023</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>50890.85612999999</v>
+        <v>42591.14659</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>78025.86693</v>
+        <v>70730.18124000001</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>124058.82459</v>
+        <v>91257.51038999998</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>104517.14281</v>
+        <v>101728.48429</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>107907.64447</v>
+        <v>92435.11041000001</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>240498.90157</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>192628.80829</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>184539.463</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>241.87702</v>
+        <v>204.52213</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>264.76477</v>
+        <v>265.43115</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>39.60929</v>
+        <v>35.28929</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>515.82312</v>
+        <v>510.78278</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>1346.21193</v>
+        <v>1341.46379</v>
       </c>
       <c r="H49" s="48" t="n">
         <v>1218.88737</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>450.97354</v>
+        <v>1311.75583</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>7710.0273</v>
+        <v>7710.027300000001</v>
       </c>
       <c r="K49" s="48" t="n">
         <v>5942.800439999999</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>6003.142559999999</v>
+        <v>6002.722559999999</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>7350.92192</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>7259.93622</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>5667.777</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>12297.07346</v>
+        <v>8414.213099999999</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>16239.3556</v>
+        <v>13604.12695</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>51992.69037999999</v>
+        <v>17181.38951</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>35911.37553</v>
+        <v>31922.99383</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>44660.35548999999</v>
+        <v>32954.49644</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>49671.96876</v>
+        <v>41372.25922</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>77574.89339</v>
+        <v>69418.42541</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>116348.79729</v>
+        <v>83547.48309000001</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>98574.34237</v>
+        <v>95785.68385</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>101904.50191</v>
+        <v>86432.38785000001</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>233147.97965</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>185368.87207</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>178871.686</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>6908.14687</v>
+        <v>5584.38478</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>10182.70743</v>
+        <v>8707.425620000002</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>36970.29707</v>
+        <v>29948.25397</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>20924.68292</v>
+        <v>18268.62359</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>39622.51096</v>
+        <v>35150.01003</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>49659.27224999999</v>
+        <v>43864.01248</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>70050.65956</v>
+        <v>61024.50492</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>89062.46208</v>
+        <v>71556.24050999999</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>84829.43835</v>
+        <v>79431.49533999999</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>65803.61975</v>
+        <v>49249.40614</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>69558.19304</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>57518.25163</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>116706.886</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>0</v>
@@ -2815,203 +2956,231 @@
       <c r="M52" s="48" t="n">
         <v>1603.93358</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>271.5</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>2673.75572</v>
+        <v>2671.22136</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>1821.86175</v>
+        <v>1783.98013</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>965.0430700000001</v>
+        <v>868.3909800000001</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>2162.50832</v>
+        <v>2162.18018</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>3353.42479</v>
+        <v>2834.04967</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>19352.16521</v>
+        <v>19032.2616</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>13631.17199</v>
+        <v>14254.1052</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>4714.01589</v>
+        <v>4709.75839</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>4842.264679999999</v>
+        <v>4808.48085</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>9135.117819999999</v>
+        <v>6794.09804</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>14379.25125</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>7579.911970000001</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>5632.415</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>4234.39115</v>
+        <v>2913.16342</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>8360.84568</v>
+        <v>6923.44549</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>35828.64868</v>
+        <v>28903.25767</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>18149.2669</v>
+        <v>15493.53571</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>36233.57337999999</v>
+        <v>32280.44757</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>30307.10704</v>
+        <v>24831.75088</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>49294.61266</v>
+        <v>39645.52481</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>84212.69619</v>
+        <v>66710.73212</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>78807.05806</v>
+        <v>73442.89887999999</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>55404.08812000001</v>
+        <v>41190.89429</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>53575.00820999999</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>48334.40608</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>110802.971</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>109679.87824</v>
+        <v>65493.75662000001</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>160190.15931</v>
+        <v>116258.85932</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>239694.86128</v>
+        <v>133164.70862</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>433427.5788</v>
+        <v>197203.88704</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>240442.39167</v>
+        <v>176219.497</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>282948.14446</v>
+        <v>261959.09376</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>309217.34098</v>
+        <v>389566.44339</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>412556.09925</v>
+        <v>406753.00742</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>510940.56646</v>
+        <v>491082.41906</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>875647.5928199999</v>
+        <v>583443.05508</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>1949492.2334</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>1675836.0402</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>2274528.122</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>24249.59511</v>
+        <v>15739.95772</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>24938.68749</v>
+        <v>27223.02258</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>35095.01667</v>
+        <v>32691.45466</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>33114.10767</v>
+        <v>32168.83864000001</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>45219.90068999999</v>
+        <v>31899.6272</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>57407.75468</v>
+        <v>54839.92352</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>61573.47091999999</v>
+        <v>73153.11947999999</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>103844.15302</v>
+        <v>107600.47187</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>106484.44224</v>
+        <v>105304.07778</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>108687.41849</v>
+        <v>58483.37465999999</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>233018.09451</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>189082.15902</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>348585.067</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>85430.28313</v>
+        <v>49753.79890000001</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>135251.47182</v>
+        <v>89035.83674000001</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>204599.84461</v>
+        <v>100473.25396</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>400313.47113</v>
+        <v>165035.0484</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>195222.49098</v>
+        <v>144319.8698</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>225540.38978</v>
+        <v>207119.17024</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>247643.87006</v>
+        <v>316413.32391</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>308711.94623</v>
+        <v>299152.53555</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>404456.1242200001</v>
+        <v>385778.3412800001</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>766960.1743300001</v>
+        <v>524959.68042</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>1716474.13889</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>1486753.88118</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>1925943.055</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
+      </c>
+      <c r="C59" s="35" t="n">
+        <v>39</v>
+      </c>
+      <c r="D59" s="35" t="n">
         <v>55</v>
       </c>
-      <c r="C59" s="35" t="n">
-        <v>53</v>
-      </c>
-      <c r="D59" s="35" t="n">
-        <v>66</v>
-      </c>
       <c r="E59" s="35" t="n">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="I59" s="35" t="n">
+        <v>81</v>
+      </c>
+      <c r="J59" s="35" t="n">
         <v>89</v>
       </c>
-      <c r="J59" s="35" t="n">
-        <v>102</v>
-      </c>
       <c r="K59" s="35" t="n">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>79</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>